--- a/medicine/Enfance/Alexander_McCall_Smith/Alexander_McCall_Smith.xlsx
+++ b/medicine/Enfance/Alexander_McCall_Smith/Alexander_McCall_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander McCall Smith est un écrivain et juriste britannique d'origine écossaise, né le 24 août 1948 à Bulawayo (en Rhodésie, aujourd'hui au Zimbabwe).
 Il devient un expert très connu de droit appliqué à la médecine et la bioéthique vers la fin du XXe siècle, et fait partie de comités britanniques et internationaux mandatés pour traiter de ces sujets.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevé pendant toute son enfance et son adolescence à Bulawayo, il déménage en Écosse pour étudier le droit à l'université d'Édimbourg, matière qu'il enseigne, à partir de 1981, à l'université du Botswana, à Gaborone. En 1984, il retourne vivre à Édimbourg, où il est professeur de droit de la santé à l'université.
 Nommé professeur émérite de l'université d'Édimbourg, il devient président du Comité d'éthique du British Medical Journal jusqu'en 2002, ainsi que vice-président de la Commission sur la génétique humaine du Royaume-Uni et membre du Comité international de bioéthique à l'UNESCO.
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Les enquêtes de Mma Ramotswe
-La journaliste Véronique Maurus indique, en 2010, dans Le Monde des livres, que la série de romans serait traduite en trente-six langues[1].
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Mma Ramotswe</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La journaliste Véronique Maurus indique, en 2010, dans Le Monde des livres, que la série de romans serait traduite en trente-six langues.
 1998 : (en) The No. 1 Ladies' Detective Agency, Polygon  (ISBN 0-7486-6252-9) (fr) Mma Ramotswe détective, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Grands détectives » no 3573, 2003, 249 p.  (ISBN 2-264-03601-X), (BNF 39074783)
 2000 : (en) Tears of the Giraffe (fr) Les Larmes de la girafe, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Grands détectives » no 3574, 2003, 237 p.  (ISBN 2-264-03602-8), (BNF 39074773)
 2001 : (en) Morality for Beautiful Girls (fr) Vague à l'âme au Botswana, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Grands détectives » no 3637, 2004, 249 p.  (ISBN 2-264-03603-6), (BNF 39154108)
@@ -572,9 +594,47 @@
 2018 : (en) The Colours of All the Cattle
 2019 : (en) To the Land of Long Lost Friends
 2020 : (en) How To Raise an Elephant
-2021 : (en) The Joy and Light Bus Company
-Série Isabel Dalhousie
-Cette série met en scène Isabel Dalhousie, rédactrice en chef d'une revue de philosophie et enquêtrice amateur.
+2021 : (en) The Joy and Light Bus Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Isabel Dalhousie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette série met en scène Isabel Dalhousie, rédactrice en chef d'une revue de philosophie et enquêtrice amateur.
 2004 : (en) The Sunday Philosophy Club (fr) Le Club des philosophes amateurs, traduit par François Rosso, Paris, Éditions des Deux Terres, 2005, 252 p.  (ISBN 978-2-84893-023-7), (BNF 40057187) ; réédition, Paris, Éditions 10/18, coll. « Grands détectives » no 3931, 2006, 300 p.  (ISBN 978-2-264-04400-6) (BNF 40242312) ; réédition dans une traduction révisée, Paris, Éditions du Masque, coll. « Masque poche », 2018, 296 p.  (ISBN 978-2-7024-4895-3)
 2005 : (en) Friends, Lovers, Chocolate (fr) Amis, Amants, Chocolat, traduit par Martine Skopan, Paris, Éditions des Deux Terres, 2006, 250 p.  (ISBN 978-2-84893-033-6), (BNF 40219119) ; réédition, Paris, Éditions 10/18, coll. « Grands détectives » no 4062, 2007, 254 p.  (ISBN 978-2-264-04401-3) (BNF 41129775) ; réédition, Paris, Éditions du Masque, coll. « Masque poche », 2018, 277 p.  (ISBN 978-2-7024-4892-2)
 2006 : (en) The Right Attitude to Rain (fr) Une question d'attitude, traduit par Martine Skopan, Paris, Éditions des Deux Terres, 2007, 250 p.  (ISBN 978-2-84893-044-2), (BNF 41123310) ; réédition, Paris, Éditions 10/18, coll. « Grands détectives » no 4159, 2008, 279 p.  (ISBN 978-2-264-04402-0) (BNF 41355668) ; réédition dans une traduction révisée, Paris, Éditions du Masque, coll. « Masque poche », 2019, 304 p.  (ISBN 978-2-7024-4924-0)
@@ -587,15 +647,91 @@
 2015 : (en) The Novel Habits of Happiness (fr) Les voies du bonheur sont imprévisibles, traduit par Martine Skopan, Paris, Éditions des Deux Terres, 2015, 280 p.  (ISBN 978-2-84893-228-6)
 2017 : (en) A Distant View of Everything (fr) Un peu de recul chère Isabel !, traduit par Denyse Beaulieu, Paris, Éditions Jean-Claude Lattès, 2018, 333 p.  (ISBN 978-2-7096-6220-8)
 2018 : (en) The Quiet Side of Passion
-2020 : (en) The Geometry of Holding Hands
-Série Dr von Igelfeld
-Aucun des romans de cette série n'a encore été traduit en français.
+2020 : (en) The Geometry of Holding Hands</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Dr von Igelfeld</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aucun des romans de cette série n'a encore été traduit en français.
 2003 : (en) Portuguese Irregular Verbs
 2003 : (en) The Finer Points of Sausage Dogs
 2003 : (en) At the Villa of Reduced Circumstances
-2011 : (en) Unusual Uses for Olive Oil
-Série Chroniques d'Édimbourg
-D'abord écrites sous la forme de roman-feuilletons publiés dans The Scotsman avant d'être reprises et publiées sous la forme romans, les chroniques mettent en scène par chapitres courts les habitants d'un même immeuble, le 44 Scotland Street, regroupant des personnages très divers allant de l'anthropologue âgée au petit garçon surdoué.
+2011 : (en) Unusual Uses for Olive Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Chroniques d'Édimbourg</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'abord écrites sous la forme de roman-feuilletons publiés dans The Scotsman avant d'être reprises et publiées sous la forme romans, les chroniques mettent en scène par chapitres courts les habitants d'un même immeuble, le 44 Scotland Street, regroupant des personnages très divers allant de l'anthropologue âgée au petit garçon surdoué.
 2005 : (en) 44 Scotland Street (fr) 44 Scotland Street, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Domaine étranger » no 4137, 2007, 413 p.  (ISBN 978-2-264-04327-6), (BNF 41276714)
 2005 : (en) Espresso Tales (fr) Édimbourg Express, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Domaine étranger » no 4235, 2009, 429 p.  (ISBN 978-2-264-04965-0), (BNF 41494481)
 2006 : (en) Love Over Scotland (fr) L'Amour en kilt, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Littérature étrangère » no 4352, 2009, 446 p.  (ISBN 978-2-264-04744-1), (BNF 41493635)
@@ -607,55 +743,430 @@
 2013 : (en) Bertie's Guide to Life and Mothers
 2015 : (en) The Revolving Door of Life
 2016 : (en) The Bertie Project
-2017 : (en) A Time of Love and Tartan
-Série Corduroy Mansions
-Aucun des romans de cette série n'a encore été traduit en français.
+2017 : (en) A Time of Love and Tartan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Corduroy Mansions</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aucun des romans de cette série n'a encore été traduit en français.
 2009 : (en) Corduroy Mansions
 2010 : (en) The Dog Who Came in From the Cold
-2011 : (en) A Conspiracy of Friends
-Série Ulf Varg
-2019 : (en) The Strange Case of the Moderate Extremists
+2011 : (en) A Conspiracy of Friends</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Ulf Varg</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2019 : (en) The Strange Case of the Moderate Extremists
 2019 : (en) The Department of Sensitive Crimes
 2019 : (en) Varg in Love
 2020 : (en) The Talented Mr. Varg
-2021 : (en) The Man with the Silver Saab
-Autres romans
-2008 : (en) La's Orchestra Saves the World
+2021 : (en) The Man with the Silver Saab</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2008 : (en) La's Orchestra Saves the World
 2012 : (en) Trains and Lovers
 2014 : (en) The Forever Girl
 2014 : (en) Fatty O'Leary's Dinner Party
 2015 : (en) Emma (fr) Emma ou Les aventures d'une jeune frivole, traduit par Jocelyne Barsse, Saint-Victor-d'Épine (France), Éditions Terra nova, 2016, 334 p.  (ISBN 978-2-8246-0550-0), (BNF 44289130) ; réédition, Bernay, City éditions, 2016, 382 p.  (ISBN 978-2-8246-0878-5)
-2016 : (en) My Italian Bulldozer
-Recueils de contes
-1991 : (en) Children of Wax: African Folk Tales
+2016 : (en) My Italian Bulldozer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueils de contes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1991 : (en) Children of Wax: African Folk Tales
 1995 : (en) Heavenly Date: And Other Flirtations
-2004 : (en) The Girl Who Married a Lion: And Other Tales from Africa (fr) La Femme qui épousa un lion, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Domaine étranger » no 3877, 2006, 167 p.  (ISBN 2-264-04187-0), (BNF 40112886)
-Ouvrages de littérature d'enfance et de jeunesse
-Série Akimbo
-1992 : (en) Akimbo and the Lions (fr) Akimbo et les Lions, traduit par Stéphane Carn ; illustrations de Peter Bailey, Paris, Éditions Gallimard jeunesse, coll. « Folio cadet » no 500, 2008, 80 p.,  (ISBN 978-2-07-057348-6), (BNF 41189819)
+2004 : (en) The Girl Who Married a Lion: And Other Tales from Africa (fr) La Femme qui épousa un lion, traduit par Élisabeth Kern, Paris, Éditions 10/18, coll. « Domaine étranger » no 3877, 2006, 167 p.  (ISBN 2-264-04187-0), (BNF 40112886)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Akimbo</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1992 : (en) Akimbo and the Lions (fr) Akimbo et les Lions, traduit par Stéphane Carn ; illustrations de Peter Bailey, Paris, Éditions Gallimard jeunesse, coll. « Folio cadet » no 500, 2008, 80 p.,  (ISBN 978-2-07-057348-6), (BNF 41189819)
 1993 : (en) Akimbo and the Crocodile Man (fr) 'Akimbo et les Crocodiles, traduit par Stéphane Carn ; illustrations de Peter Bailey, Paris, Éditions Gallimard jeunesse, coll. « Folio cadet » no 486, 2007, 81 p.  (ISBN 978-2-07-057349-3), (BNF 40971643)
 2005 : (en) Akimbo and the Elephants (fr) Akimbo et les Éléphants, traduit par Stéphane Carn ; illustrations de Peter Bailey, Paris, Éditions Gallimard jeunesse, coll. « Folio cadet » no 474, 2006, 92 p.  (ISBN 978-2-07-057347-9), (BNF 40141848)
 2006 : (en) Akimbo and the Snakes (fr) Akimbo et les Serpents, traduit par Stéphane Carn ; illustrations de Peter Bailey, Paris, Éditions Gallimard jeunesse, coll. « Folio cadet » no 519, 2009, 99 p.  (ISBN 978-2-07-061692-3), (BNF 41427798)
-2008 : (en) Akimbo and the Baboons (fr) Akimbo et les Babouins, traduit par Stéphane Carn ; illustrations de Peter Bailey, Paris, Éditions Gallimard jeunesse, coll. « Folio cadet » no 535, 2010, 102 p.  (ISBN 978-2-07-062680-9), (BNF 42133027)
-Série School Ship Tobermory
-2015 : (en) School Ship Tobermory
+2008 : (en) Akimbo and the Baboons (fr) Akimbo et les Babouins, traduit par Stéphane Carn ; illustrations de Peter Bailey, Paris, Éditions Gallimard jeunesse, coll. « Folio cadet » no 535, 2010, 102 p.  (ISBN 978-2-07-062680-9), (BNF 42133027)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série School Ship Tobermory</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2015 : (en) School Ship Tobermory
 2016 : (en) The Sands of Shark Island
-2018 : (en) The Race to Kangaroo Cliff
-Série Harriet Bean
-1990 : (en) The Five Lost Aunts of Harriet Bean (fr) Où sont mes cinq tantes sans tête ?, traduit par Claire Martel ; illustrations de Valérie Nylin, Paris, Éditions Pocket jeunesse, coll. « Pocket junior » no 491, 1999, 130 p.  (ISBN 2-266-08614-6), (BNF 37044956)
+2018 : (en) The Race to Kangaroo Cliff</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Série Harriet Bean</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1990 : (en) The Five Lost Aunts of Harriet Bean (fr) Où sont mes cinq tantes sans tête ?, traduit par Claire Martel ; illustrations de Valérie Nylin, Paris, Éditions Pocket jeunesse, coll. « Pocket junior » no 491, 1999, 130 p.  (ISBN 2-266-08614-6), (BNF 37044956)
 1991 : (en) Harriet Bean and the League of Cheats
-1993 : (en) The Cowgirl Aunt of Harriet Bean
-Série Max &amp; Maddy
-1997 : (en) Max &amp; Maddy and the Bursting Balloons Mystery
-1999 : (en) Max &amp; Maddy and the Chocolate Money Mystery
-Série Young Precious Ramotswe
-2010 : (en) Precious and the Puggies, réédité sous le titre Precious and the Monkeys en 2011
+1993 : (en) The Cowgirl Aunt of Harriet Bean</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Max &amp; Maddy</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1997 : (en) Max &amp; Maddy and the Bursting Balloons Mystery
+1999 : (en) Max &amp; Maddy and the Chocolate Money Mystery</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Young Precious Ramotswe</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2010 : (en) Precious and the Puggies, réédité sous le titre Precious and the Monkeys en 2011
 2012 : (en) Precious and the Mystery of Meerkat Hill
 2012 : (en) The Great Cake Mystery
 2013 : (en) Precious and the Missing Lion
-2015 : (en) Precious and the Zebra Necklace
-Autres romans de littérature d'enfance et de jeunesse
-1980 : (en) The White Hippo
+2015 : (en) Precious and the Zebra Necklace</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Autres romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1980 : (en) The White Hippo
 1984 : (en) The Perfect Hamburger (fr) Le Meilleur Hamburger du monde, traduit par Myriam Borel, Paris, Éditions Flammarion, coll. « Castor poche » no 845, 2001, 63 p.  (ISBN 2-08-161098-1), (BNF 37709450)
 1988 : (en) Alix and the Tigers
 1990 : (en) The Tin Dog
@@ -672,9 +1183,43 @@
 2006 : (en) Dream Angus
 2016 : (en) Freddie Mole, Lion Tamer
 2018 : (en) Hari and his Electric Feet
-2018 : (en) Max Champion and the Great Race Car Robbery
-Textes académiques
-Aucun des ouvrages de cette liste n'est traduit en français.
+2018 : (en) Max Champion and the Great Race Car Robbery</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Textes académiques</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Aucun des ouvrages de cette liste n'est traduit en français.
 1978 : (en) Power and Manoeuvrability (avec Tony Carty)
 1983 : (en) Law and Medical Ethics (avec J. Kenyon Mason, texte réédité six fois, dernièrement en 2006)
 1987 : (en) Butterworths Medico-Legal Encyclopaedia (avec J. Kenyon Mason)
@@ -686,37 +1231,73 @@
 2000 : (en) Justice and the Prosecution of Old Crimes (avec Daniel W. Shuman)
 2001 : (en) Errors, Medicine and the Law (avec Alan Merry)
 2003 : (en) A Draft Criminal Code for Scotland (avec Eric Clive, Pamela Ferguson et Christopher Gane)
-2004 : (en) Creating Humans: Ethical questions where reproduction and science collide (recueil de cours magistraux, enregistrements audio)
-Mémoires
-2013 : (en) What Auden Can Do for You</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alexander_McCall_Smith</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+2004 : (en) Creating Humans: Ethical questions where reproduction and science collide (recueil de cours magistraux, enregistrements audio)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mémoires</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2013 : (en) What Auden Can Do for You</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexander_McCall_Smith</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>2008-2009 : L'Agence no 1 des dames détectives, série télévisée britannico-américaine créée par Richard Curtis et Anthony Minghella d'après la série de romans éponymes d'Alexander McCall Smith</t>
         </is>
